--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_6_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_6_sawtooth_10_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.2100000000005</v>
+        <v>25.46000000000054</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>3.794995107053722e-08</v>
+        <v>3.299190531880214e-08</v>
       </c>
       <c r="H2" t="n">
-        <v>2.387970004223317e-07</v>
+        <v>1.995500767475569e-07</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>6.111158712623537</v>
+        <v>6.149627910164218</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.408384771272356, 8.813932653974717]</t>
+          <t>[3.3845955291209733, 8.914660291207463]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.18411793099682e-05</v>
+        <v>1.626694268508366e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.18411793099682e-05</v>
+        <v>1.626694268508366e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.132105460753078</v>
+        <v>-0.9308422677303092</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.58494764505431, -0.6792632764518469]</t>
+          <t>[-1.3711055024676178, -0.49057903299300065]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.377463087592901e-06</v>
+        <v>4.070705522418727e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.377463087592901e-06</v>
+        <v>4.070705522418727e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>10.43235834310691</v>
+        <v>10.36195210474986</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[9.010874425955024, 11.853842260258787]</t>
+          <t>[8.938652980695535, 11.785251228804183]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.542342342342433</v>
+        <v>3.771851851851931</v>
       </c>
       <c r="X2" t="n">
-        <v>2.72540540540546</v>
+        <v>1.987867867867908</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.359279279279407</v>
+        <v>5.555835835835953</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +652,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.88000000000029</v>
+        <v>23.96000000000031</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410850046847713e-09</v>
+        <v>2.446563618363484e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>9.537731184549181e-08</v>
+        <v>6.782955863648965e-08</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.826077681418995</v>
+        <v>5.788568173046826</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.3343096861130714, 8.317845676724918]</t>
+          <t>[3.4855376917031418, 8.091598654390511]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>5.682235180604067e-06</v>
+        <v>1.120391559084055e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.136447036120813e-05</v>
+        <v>2.24078311816811e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>2.421447791055196</v>
+        <v>2.72334258058935</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.0189214050096567, 2.8239741771007347]</t>
+          <t>[2.3082372449798885, 3.1384479161988117]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>10.57968088492227</v>
+        <v>10.36783102588813</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[9.310365203799783, 11.848996566044754]</t>
+          <t>[9.120039177614995, 11.615622874161264]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>14.67699699699718</v>
+        <v>13.57493493493511</v>
       </c>
       <c r="X3" t="n">
-        <v>13.14714714714731</v>
+        <v>11.99199199199215</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.20684684684705</v>
+        <v>15.15787787787807</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_6_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_6_sawtooth_10_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.46000000000054</v>
+        <v>25.31000000000052</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>3.299190531880214e-08</v>
+        <v>4.864148082095454e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>1.995500767475569e-07</v>
+        <v>2.234575369651602e-06</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>6.149627910164218</v>
+        <v>5.820689001283953</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.3845955291209733, 8.914660291207463]</t>
+          <t>[3.05682343739244, 8.584554565175466]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.626694268508366e-05</v>
+        <v>4.355990020776801e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.626694268508366e-05</v>
+        <v>4.355990020776801e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.9308422677303092</v>
+        <v>-1.106947561625232</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.3711055024676178, -0.49057903299300065]</t>
+          <t>[-1.6101055441821561, -0.6037895790683088]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>4.070705522418727e-05</v>
+        <v>1.995458688930363e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>4.070705522418727e-05</v>
+        <v>1.995458688930363e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>10.36195210474986</v>
+        <v>10.42775949509395</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[8.938652980695535, 11.785251228804183]</t>
+          <t>[8.956243779723385, 11.899275210464518]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>3.771851851851931</v>
+        <v>4.459019019019109</v>
       </c>
       <c r="X2" t="n">
-        <v>1.987867867867908</v>
+        <v>2.432192192192242</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.555835835835953</v>
+        <v>6.485845845845978</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +652,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.96000000000031</v>
+        <v>23.9200000000003</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.446563618363484e-09</v>
+        <v>3.543255910898324e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>6.782955863648965e-08</v>
+        <v>9.833668631160358e-08</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.788568173046826</v>
+        <v>5.903662411630006</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.4855376917031418, 8.091598654390511]</t>
+          <t>[3.4741181497564764, 8.333206673503536]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.120391559084055e-06</v>
+        <v>2.457505326125542e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>2.24078311816811e-06</v>
+        <v>4.915010652251084e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>2.72334258058935</v>
+        <v>2.55981623625835</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.3082372449798885, 3.1384479161988117]</t>
+          <t>[2.144710900648888, 2.974921571867813]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>10.36783102588813</v>
+        <v>10.50645429706033</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[9.120039177614995, 11.615622874161264]</t>
+          <t>[9.221253247084565, 11.791655347036087]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>13.57493493493511</v>
+        <v>14.17481481481499</v>
       </c>
       <c r="X3" t="n">
-        <v>11.99199199199215</v>
+        <v>12.59451451451467</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.15787787787807</v>
+        <v>15.75511511511531</v>
       </c>
     </row>
   </sheetData>
